--- a/data/mall-swarm/mall-demo_structure.xlsx
+++ b/data/mall-swarm/mall-demo_structure.xlsx
@@ -346,43 +346,43 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>showStatus</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>factoryStatus</t>
+  </si>
+  <si>
+    <t>firstLetter</t>
+  </si>
+  <si>
     <t>logo</t>
   </si>
   <si>
-    <t>private</t>
+    <t>brandStory</t>
   </si>
   <si>
     <t>bigPic</t>
   </si>
   <si>
-    <t>factoryStatus</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>showStatus</t>
-  </si>
-  <si>
-    <t>firstLetter</t>
-  </si>
-  <si>
-    <t>brandStory</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
     <t>portalService</t>
   </si>
   <si>
+    <t>demoService</t>
+  </si>
+  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>demoService</t>
   </si>
   <si>
     <t>password</t>
@@ -3456,7 +3456,7 @@
         <v>109</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -3470,7 +3470,7 @@
         <v>109</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -3484,7 +3484,7 @@
         <v>109</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -3498,7 +3498,7 @@
         <v>109</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -3512,7 +3512,7 @@
         <v>109</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -3554,7 +3554,7 @@
         <v>109</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -3582,7 +3582,7 @@
         <v>109</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -3590,13 +3590,13 @@
         <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>109</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">

--- a/data/mall-swarm/mall-demo_structure.xlsx
+++ b/data/mall-swarm/mall-demo_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="155">
   <si>
     <t>Class Name</t>
   </si>
@@ -346,45 +348,45 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>brandStory</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>firstLetter</t>
+  </si>
+  <si>
+    <t>factoryStatus</t>
+  </si>
+  <si>
+    <t>bigPic</t>
+  </si>
+  <si>
     <t>sort</t>
   </si>
   <si>
-    <t>private</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>logo</t>
   </si>
   <si>
     <t>showStatus</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>factoryStatus</t>
-  </si>
-  <si>
-    <t>firstLetter</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>brandStory</t>
-  </si>
-  <si>
-    <t>bigPic</t>
-  </si>
-  <si>
     <t>portalService</t>
   </si>
   <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>demoService</t>
   </si>
   <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -443,6 +445,48 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -3242,6 +3286,877 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D12"/>
@@ -3456,7 +4371,7 @@
         <v>109</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -3470,7 +4385,7 @@
         <v>109</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -3484,7 +4399,7 @@
         <v>109</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -3498,7 +4413,7 @@
         <v>109</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -3512,7 +4427,7 @@
         <v>109</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -3554,7 +4469,7 @@
         <v>109</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -3582,7 +4497,7 @@
         <v>109</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>66</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -3590,13 +4505,13 @@
         <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>109</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">

--- a/data/mall-swarm/mall-demo_structure.xlsx
+++ b/data/mall-swarm/mall-demo_structure.xlsx
@@ -348,13 +348,25 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>firstLetter</t>
+  </si>
+  <si>
     <t>brandStory</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>firstLetter</t>
+    <t>showStatus</t>
+  </si>
+  <si>
+    <t>sort</t>
   </si>
   <si>
     <t>factoryStatus</t>
@@ -363,34 +375,22 @@
     <t>bigPic</t>
   </si>
   <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>showStatus</t>
-  </si>
-  <si>
     <t>portalService</t>
   </si>
   <si>
+    <t>demoService</t>
+  </si>
+  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>demoService</t>
+    <t>username</t>
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>username</t>
   </si>
   <si>
     <t>brandMapper</t>
@@ -4399,7 +4399,7 @@
         <v>109</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -4441,7 +4441,7 @@
         <v>109</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -4455,7 +4455,7 @@
         <v>109</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -4469,7 +4469,7 @@
         <v>109</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -4497,7 +4497,7 @@
         <v>109</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -4505,13 +4505,13 @@
         <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>109</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">

--- a/data/mall-swarm/mall-demo_structure.xlsx
+++ b/data/mall-swarm/mall-demo_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="170">
   <si>
     <t>Class Name</t>
   </si>
@@ -348,10 +348,19 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>factoryStatus</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>brandStory</t>
+  </si>
+  <si>
     <t>logo</t>
   </si>
   <si>
-    <t>private</t>
+    <t>sort</t>
   </si>
   <si>
     <t>name</t>
@@ -360,18 +369,9 @@
     <t>firstLetter</t>
   </si>
   <si>
-    <t>brandStory</t>
-  </si>
-  <si>
     <t>showStatus</t>
   </si>
   <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>factoryStatus</t>
-  </si>
-  <si>
     <t>bigPic</t>
   </si>
   <si>
@@ -450,43 +450,88 @@
     <t>Number of Lines</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>59</t>
+    <t>MyBatisConfig()</t>
+  </si>
+  <si>
+    <t>PmsBrandDto()</t>
+  </si>
+  <si>
+    <t>FeignConfig()</t>
+  </si>
+  <si>
+    <t>FeignPortalController()</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>DemoController()</t>
+  </si>
+  <si>
+    <t>UmsAdminLoginParam()</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>DemoServiceImpl()</t>
+  </si>
+  <si>
+    <t>FeignAdminController()</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>FlagValidatorClass()</t>
+  </si>
+  <si>
+    <t>FeignRequestInterceptor()</t>
+  </si>
+  <si>
+    <t>FeignSearchController()</t>
+  </si>
+  <si>
+    <t>SwaggerConfig()</t>
+  </si>
+  <si>
+    <t>MallDemoApplication()</t>
   </si>
 </sst>
 </file>
@@ -3395,7 +3440,7 @@
         <v>72</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -3403,7 +3448,7 @@
         <v>74</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -3411,7 +3456,7 @@
         <v>82</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3427,7 +3472,7 @@
         <v>104</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -3443,7 +3488,7 @@
         <v>92</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3453,7 +3498,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3472,10 +3517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>142</v>
@@ -3486,10 +3531,10 @@
         <v>24</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4">
@@ -3497,10 +3542,10 @@
         <v>24</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
@@ -3508,10 +3553,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
@@ -3519,10 +3564,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
@@ -3530,10 +3575,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
@@ -3541,10 +3586,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
@@ -3552,10 +3597,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
@@ -3563,10 +3608,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
@@ -3574,10 +3619,10 @@
         <v>24</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
@@ -3585,10 +3630,10 @@
         <v>24</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
@@ -3596,10 +3641,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -3607,10 +3652,10 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -3618,10 +3663,10 @@
         <v>24</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -3629,10 +3674,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
@@ -3640,29 +3685,29 @@
         <v>24</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>142</v>
@@ -3670,10 +3715,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>142</v>
@@ -3681,21 +3726,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>142</v>
@@ -3703,35 +3748,35 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26">
@@ -3739,10 +3784,10 @@
         <v>99</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
@@ -3750,117 +3795,117 @@
         <v>99</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>142</v>
@@ -3868,10 +3913,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>134</v>
@@ -3879,131 +3924,131 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>134</v>
@@ -4011,10 +4056,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>134</v>
@@ -4022,10 +4067,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>134</v>
@@ -4033,10 +4078,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>134</v>
@@ -4044,10 +4089,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>134</v>
@@ -4055,10 +4100,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>134</v>
@@ -4066,54 +4111,54 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>142</v>
@@ -4121,34 +4166,177 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B63" t="s" s="0">
+      <c r="B75" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C63" t="s" s="0">
+      <c r="C75" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C76" t="s" s="0">
         <v>142</v>
       </c>
     </row>
@@ -4371,7 +4559,7 @@
         <v>109</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -4413,7 +4601,7 @@
         <v>109</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -4427,7 +4615,7 @@
         <v>109</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -4441,7 +4629,7 @@
         <v>109</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">

--- a/data/mall-swarm/mall-demo_structure.xlsx
+++ b/data/mall-swarm/mall-demo_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="169">
   <si>
     <t>Class Name</t>
   </si>
@@ -448,9 +448,6 @@
   </si>
   <si>
     <t>Number of Lines</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>56</t>
@@ -3352,7 +3349,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3">
@@ -3360,7 +3357,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
@@ -3368,7 +3365,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
@@ -3376,7 +3373,7 @@
         <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
@@ -3384,7 +3381,7 @@
         <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -3392,7 +3389,7 @@
         <v>48</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -3400,7 +3397,7 @@
         <v>53</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
@@ -3408,7 +3405,7 @@
         <v>57</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10">
@@ -3416,7 +3413,7 @@
         <v>103</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -3424,7 +3421,7 @@
         <v>66</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -3432,7 +3429,7 @@
         <v>67</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -3448,7 +3445,7 @@
         <v>74</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -3456,7 +3453,7 @@
         <v>82</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -3464,7 +3461,7 @@
         <v>84</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -3472,7 +3469,7 @@
         <v>104</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
@@ -3480,7 +3477,7 @@
         <v>87</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
@@ -3488,7 +3485,7 @@
         <v>92</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3520,10 +3517,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3">
@@ -3534,7 +3531,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -3545,7 +3542,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -3556,7 +3553,7 @@
         <v>40</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -3567,7 +3564,7 @@
         <v>37</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -3578,7 +3575,7 @@
         <v>38</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -3589,7 +3586,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -3600,7 +3597,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -3611,7 +3608,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
@@ -3622,7 +3619,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -3633,7 +3630,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
@@ -3644,7 +3641,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -3655,7 +3652,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -3666,7 +3663,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3677,7 +3674,7 @@
         <v>41</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -3688,7 +3685,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -3699,7 +3696,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -3707,10 +3704,10 @@
         <v>24</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20">
@@ -3721,7 +3718,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
@@ -3732,7 +3729,7 @@
         <v>43</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -3740,10 +3737,10 @@
         <v>42</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23">
@@ -3754,7 +3751,7 @@
         <v>86</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -3765,7 +3762,7 @@
         <v>98</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
@@ -3773,10 +3770,10 @@
         <v>97</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
@@ -3787,7 +3784,7 @@
         <v>100</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
@@ -3798,7 +3795,7 @@
         <v>58</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28">
@@ -3809,7 +3806,7 @@
         <v>59</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29">
@@ -3820,7 +3817,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30">
@@ -3831,7 +3828,7 @@
         <v>102</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31">
@@ -3842,7 +3839,7 @@
         <v>101</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
@@ -3850,10 +3847,10 @@
         <v>99</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33">
@@ -3864,7 +3861,7 @@
         <v>50</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -3875,7 +3872,7 @@
         <v>52</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
@@ -3886,7 +3883,7 @@
         <v>51</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
@@ -3897,7 +3894,7 @@
         <v>49</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
@@ -3905,10 +3902,10 @@
         <v>48</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -3941,7 +3938,7 @@
         <v>61</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41">
@@ -3952,7 +3949,7 @@
         <v>58</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42">
@@ -3963,7 +3960,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43">
@@ -3974,7 +3971,7 @@
         <v>60</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3982,7 @@
         <v>63</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45">
@@ -3996,7 +3993,7 @@
         <v>64</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46">
@@ -4004,10 +4001,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47">
@@ -4018,7 +4015,7 @@
         <v>54</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48">
@@ -4029,7 +4026,7 @@
         <v>100</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49">
@@ -4037,10 +4034,10 @@
         <v>103</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50">
@@ -4117,7 +4114,7 @@
         <v>70</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57">
@@ -4128,7 +4125,7 @@
         <v>71</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58">
@@ -4139,7 +4136,7 @@
         <v>68</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -4150,7 +4147,7 @@
         <v>69</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
@@ -4158,10 +4155,10 @@
         <v>67</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -4227,7 +4224,7 @@
         <v>83</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67">
@@ -4235,10 +4232,10 @@
         <v>82</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -4271,7 +4268,7 @@
         <v>73</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71">
@@ -4279,10 +4276,10 @@
         <v>104</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72">
@@ -4293,7 +4290,7 @@
         <v>90</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73">
@@ -4304,7 +4301,7 @@
         <v>88</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74">
@@ -4312,10 +4309,10 @@
         <v>87</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75">
@@ -4326,7 +4323,7 @@
         <v>93</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76">
@@ -4334,10 +4331,10 @@
         <v>92</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-demo_structure.xlsx
+++ b/data/mall-swarm/mall-demo_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="169">
   <si>
     <t>Class Name</t>
   </si>
@@ -66,6 +66,9 @@
     <t>java.lang.String</t>
   </si>
   <si>
+    <t>MyBatisConfig()</t>
+  </si>
+  <si>
     <t>wait(long)</t>
   </si>
   <si>
@@ -150,6 +153,9 @@
     <t>setBigPic(java.lang.String)</t>
   </si>
   <si>
+    <t>PmsBrandDto()</t>
+  </si>
+  <si>
     <t>com.macro.mall.demo.config.FeignConfig</t>
   </si>
   <si>
@@ -162,6 +168,9 @@
     <t>feign.RequestInterceptor</t>
   </si>
   <si>
+    <t>FeignConfig()</t>
+  </si>
+  <si>
     <t>feignLoggerLevel()</t>
   </si>
   <si>
@@ -183,6 +192,9 @@
     <t>getPassword()</t>
   </si>
   <si>
+    <t>UmsAdminLoginParam()</t>
+  </si>
+  <si>
     <t>com.macro.mall.demo.service.FeignAdminService</t>
   </si>
   <si>
@@ -213,6 +225,9 @@
     <t>java.util.List</t>
   </si>
   <si>
+    <t>DemoServiceImpl()</t>
+  </si>
+  <si>
     <t>listBrand(int, int)</t>
   </si>
   <si>
@@ -228,6 +243,9 @@
     <t>com.macro.mall.demo.validator.FlagValidatorClass</t>
   </si>
   <si>
+    <t>FlagValidatorClass()</t>
+  </si>
+  <si>
     <t>isValid(java.lang.Object, javax.validation.ConstraintValidatorContext)</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>com.macro.mall.demo.component.FeignRequestInterceptor</t>
   </si>
   <si>
+    <t>FeignRequestInterceptor()</t>
+  </si>
+  <si>
     <t>apply(feign.RequestTemplate)</t>
   </si>
   <si>
@@ -288,6 +309,9 @@
     <t>com.macro.mall.demo.config.SwaggerConfig</t>
   </si>
   <si>
+    <t>SwaggerConfig()</t>
+  </si>
+  <si>
     <t>springfoxHandlerProviderBeanPostProcessor()</t>
   </si>
   <si>
@@ -303,6 +327,9 @@
     <t>com.macro.mall.MallDemoApplication</t>
   </si>
   <si>
+    <t>MallDemoApplication()</t>
+  </si>
+  <si>
     <t>main(java.lang.String[])</t>
   </si>
   <si>
@@ -321,6 +348,9 @@
     <t>cartList()</t>
   </si>
   <si>
+    <t>FeignPortalController()</t>
+  </si>
+  <si>
     <t>com.macro.mall.demo.controller.DemoController</t>
   </si>
   <si>
@@ -333,12 +363,21 @@
     <t>listBrand(java.lang.Integer, java.lang.Integer)</t>
   </si>
   <si>
+    <t>DemoController()</t>
+  </si>
+  <si>
     <t>com.macro.mall.demo.controller.FeignAdminController</t>
   </si>
   <si>
+    <t>FeignAdminController()</t>
+  </si>
+  <si>
     <t>com.macro.mall.demo.controller.FeignSearchController</t>
   </si>
   <si>
+    <t>FeignSearchController()</t>
+  </si>
+  <si>
     <t>Field Name</t>
   </si>
   <si>
@@ -354,39 +393,39 @@
     <t>private</t>
   </si>
   <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>firstLetter</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>brandStory</t>
   </si>
   <si>
-    <t>logo</t>
+    <t>showStatus</t>
+  </si>
+  <si>
+    <t>bigPic</t>
   </si>
   <si>
     <t>sort</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>firstLetter</t>
-  </si>
-  <si>
-    <t>showStatus</t>
-  </si>
-  <si>
-    <t>bigPic</t>
-  </si>
-  <si>
     <t>portalService</t>
   </si>
   <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>demoService</t>
   </si>
   <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -480,55 +519,16 @@
     <t>3</t>
   </si>
   <si>
-    <t>MyBatisConfig()</t>
-  </si>
-  <si>
-    <t>PmsBrandDto()</t>
-  </si>
-  <si>
-    <t>FeignConfig()</t>
-  </si>
-  <si>
-    <t>FeignPortalController()</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>DemoController()</t>
-  </si>
-  <si>
-    <t>UmsAdminLoginParam()</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>DemoServiceImpl()</t>
-  </si>
-  <si>
-    <t>FeignAdminController()</t>
-  </si>
-  <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>FlagValidatorClass()</t>
-  </si>
-  <si>
-    <t>FeignRequestInterceptor()</t>
-  </si>
-  <si>
-    <t>FeignSearchController()</t>
-  </si>
-  <si>
-    <t>SwaggerConfig()</t>
-  </si>
-  <si>
-    <t>MallDemoApplication()</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -688,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -696,13 +696,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -710,13 +710,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -738,66 +738,66 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>25</v>
-      </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>10</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>27</v>
@@ -814,26 +814,26 @@
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>29</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>30</v>
@@ -842,12 +842,12 @@
         <v>6</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>31</v>
@@ -856,12 +856,12 @@
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>32</v>
@@ -870,40 +870,40 @@
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>34</v>
@@ -912,29 +912,29 @@
         <v>6</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
@@ -945,66 +945,66 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>37</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>6</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>38</v>
@@ -1038,40 +1038,40 @@
         <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>40</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>41</v>
@@ -1094,15 +1094,15 @@
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
@@ -1113,94 +1113,94 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
@@ -1211,38 +1211,38 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
@@ -1253,24 +1253,24 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>6</v>
@@ -1281,10 +1281,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -1295,24 +1295,24 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>6</v>
@@ -1323,69 +1323,69 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s" s="0">
         <v>10</v>
@@ -1393,94 +1393,94 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -1491,55 +1491,55 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
         <v>10</v>
@@ -1547,94 +1547,94 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>6</v>
@@ -1645,24 +1645,24 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
@@ -1673,30 +1673,30 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -1704,13 +1704,13 @@
         <v>57</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82">
@@ -1718,10 +1718,10 @@
         <v>57</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s" s="0">
         <v>10</v>
@@ -1732,13 +1732,13 @@
         <v>57</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -1746,133 +1746,133 @@
         <v>57</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>6</v>
@@ -1883,83 +1883,83 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s" s="0">
         <v>10</v>
@@ -1967,164 +1967,164 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s" s="0">
         <v>66</v>
-      </c>
-      <c r="B100" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="C100" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s" s="0">
-        <v>22</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B108" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="C108" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D108" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s" s="0">
         <v>66</v>
-      </c>
-      <c r="B109" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C109" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D109" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>6</v>
@@ -2135,69 +2135,69 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s" s="0">
         <v>10</v>
@@ -2205,35 +2205,35 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B119" t="s" s="0">
         <v>69</v>
@@ -2242,32 +2242,32 @@
         <v>6</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s" s="0">
         <v>10</v>
@@ -2275,52 +2275,52 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
@@ -2331,24 +2331,24 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>6</v>
@@ -2359,30 +2359,30 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -2390,13 +2390,13 @@
         <v>72</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -2404,10 +2404,10 @@
         <v>72</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D131" t="s" s="0">
         <v>10</v>
@@ -2418,13 +2418,13 @@
         <v>72</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
@@ -2432,13 +2432,13 @@
         <v>72</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -2446,13 +2446,13 @@
         <v>72</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
@@ -2460,91 +2460,91 @@
         <v>72</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>6</v>
@@ -2555,111 +2555,111 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s" s="0">
         <v>10</v>
@@ -2667,80 +2667,80 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>6</v>
@@ -2751,55 +2751,55 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>81</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D159" t="s" s="0">
         <v>10</v>
@@ -2807,94 +2807,94 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>6</v>
@@ -2905,38 +2905,38 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>6</v>
@@ -2947,27 +2947,27 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D171" t="s" s="0">
         <v>10</v>
@@ -2975,38 +2975,38 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>6</v>
@@ -3017,24 +3017,24 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>6</v>
@@ -3045,66 +3045,66 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>6</v>
@@ -3115,69 +3115,69 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B185" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B185" t="s" s="0">
-        <v>5</v>
-      </c>
       <c r="C185" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D186" t="s" s="0">
         <v>10</v>
@@ -3185,52 +3185,52 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>6</v>
@@ -3241,52 +3241,52 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D191" t="s" s="0">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D192" t="s" s="0">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>6</v>
@@ -3297,30 +3297,156 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B196" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C196" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D196" t="s" s="0">
-        <v>10</v>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D205" t="s" s="0">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
@@ -3349,143 +3475,143 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3495,7 +3621,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3509,620 +3635,620 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>63</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>64</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>134</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>163</v>
@@ -4130,211 +4256,68 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s" s="0">
         <v>164</v>
-      </c>
-      <c r="C60" t="s" s="0">
-        <v>134</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="B64" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="C64" t="s" s="0">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="B65" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="C65" t="s" s="0">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B66" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="C66" t="s" s="0">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B67" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="C67" t="s" s="0">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s" s="0">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C69" t="s" s="0">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="C71" t="s" s="0">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="C72" t="s" s="0">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B73" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C73" t="s" s="0">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B74" t="s" s="0">
-        <v>167</v>
-      </c>
-      <c r="C74" t="s" s="0">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B75" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C75" t="s" s="0">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B76" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="C76" t="s" s="0">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4344,7 +4327,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4352,13 +4335,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -4366,156 +4349,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>59</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4536,38 +4575,38 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>13</v>
@@ -4575,13 +4614,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>13</v>
@@ -4589,27 +4628,27 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>13</v>
@@ -4617,97 +4656,97 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>13</v>
@@ -4715,13 +4754,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>122</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>109</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>13</v>
@@ -4729,58 +4768,58 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4798,87 +4837,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4896,19 +4935,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4926,206 +4965,206 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5143,19 +5182,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5173,19 +5212,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5203,19 +5242,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-demo_structure.xlsx
+++ b/data/mall-swarm/mall-demo_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="169">
   <si>
     <t>Class Name</t>
   </si>
@@ -387,49 +387,49 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>firstLetter</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>brandStory</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
     <t>factoryStatus</t>
   </si>
   <si>
-    <t>private</t>
+    <t>showStatus</t>
   </si>
   <si>
     <t>logo</t>
   </si>
   <si>
-    <t>firstLetter</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>brandStory</t>
-  </si>
-  <si>
-    <t>showStatus</t>
-  </si>
-  <si>
     <t>bigPic</t>
   </si>
   <si>
-    <t>sort</t>
-  </si>
-  <si>
     <t>portalService</t>
   </si>
   <si>
+    <t>demoService</t>
+  </si>
+  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>demoService</t>
+    <t>password</t>
   </si>
   <si>
     <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>brandMapper</t>
@@ -3621,7 +3621,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3643,10 +3643,10 @@
         <v>25</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
@@ -3654,7 +3654,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>164</v>
@@ -3665,7 +3665,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>164</v>
@@ -3676,7 +3676,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>164</v>
@@ -3687,7 +3687,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>164</v>
@@ -3698,7 +3698,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>164</v>
@@ -3709,7 +3709,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>164</v>
@@ -3720,7 +3720,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>164</v>
@@ -3731,7 +3731,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>164</v>
@@ -3742,7 +3742,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>164</v>
@@ -3753,7 +3753,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>164</v>
@@ -3764,7 +3764,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>164</v>
@@ -3775,7 +3775,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>164</v>
@@ -3786,7 +3786,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>164</v>
@@ -3797,7 +3797,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>164</v>
@@ -3808,7 +3808,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>164</v>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>164</v>
@@ -3830,7 +3830,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>164</v>
@@ -3838,10 +3838,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>164</v>
@@ -3852,18 +3852,18 @@
         <v>106</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>164</v>
@@ -3871,13 +3871,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24">
@@ -3885,10 +3885,10 @@
         <v>109</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25">
@@ -3896,10 +3896,10 @@
         <v>109</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26">
@@ -3907,10 +3907,10 @@
         <v>109</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27">
@@ -3918,40 +3918,40 @@
         <v>109</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>164</v>
@@ -3962,40 +3962,40 @@
         <v>51</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>164</v>
@@ -4003,35 +4003,35 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38">
@@ -4039,10 +4039,10 @@
         <v>61</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39">
@@ -4050,7 +4050,7 @@
         <v>61</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>164</v>
@@ -4058,79 +4058,79 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47">
@@ -4138,7 +4138,7 @@
         <v>71</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>147</v>
@@ -4146,32 +4146,32 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>147</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>147</v>
@@ -4190,10 +4190,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>147</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>147</v>
@@ -4212,32 +4212,32 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>147</v>
@@ -4245,21 +4245,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>147</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>147</v>
@@ -4278,45 +4278,155 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B63" t="s" s="0">
+      <c r="B72" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B73" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="C63" t="s" s="0">
+      <c r="C73" t="s" s="0">
         <v>164</v>
       </c>
     </row>
@@ -4595,7 +4705,7 @@
         <v>122</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -4637,7 +4747,7 @@
         <v>122</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -4651,7 +4761,7 @@
         <v>122</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -4693,7 +4803,7 @@
         <v>122</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -4721,7 +4831,7 @@
         <v>122</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>132</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -4729,13 +4839,13 @@
         <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>122</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>71</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">

--- a/data/mall-swarm/mall-demo_structure.xlsx
+++ b/data/mall-swarm/mall-demo_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="169">
   <si>
     <t>Class Name</t>
   </si>
@@ -354,16 +354,16 @@
     <t>com.macro.mall.demo.controller.DemoController</t>
   </si>
   <si>
+    <t>brand(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>listBrand(java.lang.Integer, java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>DemoController()</t>
+  </si>
+  <si>
     <t>getBrandList()</t>
-  </si>
-  <si>
-    <t>brand(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>listBrand(java.lang.Integer, java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>DemoController()</t>
   </si>
   <si>
     <t>com.macro.mall.demo.controller.FeignAdminController</t>
@@ -3621,7 +3621,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3643,10 +3643,10 @@
         <v>25</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -3654,7 +3654,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>164</v>
@@ -3665,7 +3665,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>164</v>
@@ -3676,7 +3676,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>164</v>
@@ -3687,7 +3687,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>164</v>
@@ -3698,7 +3698,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>164</v>
@@ -3709,7 +3709,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>164</v>
@@ -3720,7 +3720,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>164</v>
@@ -3731,7 +3731,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>164</v>
@@ -3742,7 +3742,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>164</v>
@@ -3753,7 +3753,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>164</v>
@@ -3764,7 +3764,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>164</v>
@@ -3775,7 +3775,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>164</v>
@@ -3786,7 +3786,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>164</v>
@@ -3797,7 +3797,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>164</v>
@@ -3808,7 +3808,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>164</v>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>164</v>
@@ -3830,7 +3830,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>164</v>
@@ -3838,10 +3838,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>164</v>
@@ -3852,18 +3852,18 @@
         <v>106</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>164</v>
@@ -3871,13 +3871,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24">
@@ -3885,10 +3885,10 @@
         <v>109</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25">
@@ -3896,10 +3896,10 @@
         <v>109</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26">
@@ -3907,10 +3907,10 @@
         <v>109</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
@@ -3918,40 +3918,40 @@
         <v>109</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>164</v>
@@ -3962,40 +3962,40 @@
         <v>51</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>164</v>
@@ -4003,35 +4003,35 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38">
@@ -4039,10 +4039,10 @@
         <v>61</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39">
@@ -4050,7 +4050,7 @@
         <v>61</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>164</v>
@@ -4058,79 +4058,79 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47">
@@ -4138,7 +4138,7 @@
         <v>71</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>147</v>
@@ -4146,32 +4146,32 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>147</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>147</v>
@@ -4190,10 +4190,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>147</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>147</v>
@@ -4212,32 +4212,32 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>147</v>
@@ -4245,21 +4245,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>147</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>147</v>
@@ -4278,155 +4278,45 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B64" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="C64" t="s" s="0">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B65" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C65" t="s" s="0">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B66" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C66" t="s" s="0">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="B67" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="C67" t="s" s="0">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="C68" t="s" s="0">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C69" t="s" s="0">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C71" t="s" s="0">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C72" t="s" s="0">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="B73" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="C73" t="s" s="0">
         <v>164</v>
       </c>
     </row>
@@ -4437,7 +4327,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4462,13 +4352,13 @@
         <v>106</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4476,13 +4366,13 @@
         <v>106</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -4490,105 +4380,105 @@
         <v>106</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>6</v>
@@ -4599,10 +4489,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
@@ -4613,38 +4503,38 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
@@ -4655,15 +4545,519 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="C51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -5129,7 +5523,7 @@
         <v>109</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>71</v>
@@ -5163,7 +5557,7 @@
         <v>109</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>71</v>
@@ -5231,7 +5625,7 @@
         <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>71</v>
@@ -5265,7 +5659,7 @@
         <v>114</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>57</v>

--- a/data/mall-swarm/mall-demo_structure.xlsx
+++ b/data/mall-swarm/mall-demo_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="170">
   <si>
     <t>Class Name</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>56</t>
@@ -3475,7 +3478,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -3483,7 +3486,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
@@ -3491,7 +3494,7 @@
         <v>44</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
@@ -3499,7 +3502,7 @@
         <v>106</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
@@ -3507,7 +3510,7 @@
         <v>109</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7">
@@ -3515,7 +3518,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -3523,7 +3526,7 @@
         <v>57</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
@@ -3531,7 +3534,7 @@
         <v>61</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
@@ -3539,7 +3542,7 @@
         <v>114</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
@@ -3547,7 +3550,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
@@ -3555,7 +3558,7 @@
         <v>72</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -3571,7 +3574,7 @@
         <v>80</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -3579,7 +3582,7 @@
         <v>88</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -3587,7 +3590,7 @@
         <v>91</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
@@ -3595,7 +3598,7 @@
         <v>116</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
@@ -3603,7 +3606,7 @@
         <v>94</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
@@ -3611,7 +3614,7 @@
         <v>100</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3646,7 +3649,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -3657,7 +3660,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
@@ -3668,7 +3671,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5">
@@ -3679,7 +3682,7 @@
         <v>38</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -3690,7 +3693,7 @@
         <v>39</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
@@ -3701,7 +3704,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -3712,7 +3715,7 @@
         <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3726,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10">
@@ -3734,7 +3737,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
@@ -3745,7 +3748,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
@@ -3756,7 +3759,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -3767,7 +3770,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -3778,7 +3781,7 @@
         <v>40</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
@@ -3789,7 +3792,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
@@ -3800,7 +3803,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
@@ -3811,7 +3814,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
@@ -3822,7 +3825,7 @@
         <v>49</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -3833,7 +3836,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
@@ -3844,7 +3847,7 @@
         <v>93</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
@@ -3855,7 +3858,7 @@
         <v>107</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
@@ -3866,7 +3869,7 @@
         <v>113</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
@@ -3877,7 +3880,7 @@
         <v>62</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24">
@@ -3888,7 +3891,7 @@
         <v>63</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25">
@@ -3899,7 +3902,7 @@
         <v>64</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26">
@@ -3910,7 +3913,7 @@
         <v>111</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27">
@@ -3921,7 +3924,7 @@
         <v>110</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28">
@@ -3932,7 +3935,7 @@
         <v>53</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29">
@@ -3943,7 +3946,7 @@
         <v>55</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -3954,7 +3957,7 @@
         <v>54</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31">
@@ -3965,7 +3968,7 @@
         <v>52</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -3998,7 +4001,7 @@
         <v>65</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35">
@@ -4009,7 +4012,7 @@
         <v>62</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
@@ -4020,7 +4023,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37">
@@ -4031,7 +4034,7 @@
         <v>64</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38">
@@ -4042,7 +4045,7 @@
         <v>68</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39">
@@ -4053,7 +4056,7 @@
         <v>69</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40">
@@ -4064,7 +4067,7 @@
         <v>58</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41">
@@ -4075,7 +4078,7 @@
         <v>113</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42">
@@ -4152,7 +4155,7 @@
         <v>76</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49">
@@ -4163,7 +4166,7 @@
         <v>77</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50">
@@ -4174,7 +4177,7 @@
         <v>74</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51">
@@ -4185,7 +4188,7 @@
         <v>75</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52">
@@ -4251,7 +4254,7 @@
         <v>90</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58">
@@ -4284,7 +4287,7 @@
         <v>79</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61">
@@ -4295,7 +4298,7 @@
         <v>98</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62">
@@ -4306,7 +4309,7 @@
         <v>96</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63">
@@ -4317,7 +4320,7 @@
         <v>102</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-demo_structure.xlsx
+++ b/data/mall-swarm/mall-demo_structure.xlsx
@@ -387,49 +387,49 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>factoryStatus</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>bigPic</t>
+  </si>
+  <si>
     <t>firstLetter</t>
   </si>
   <si>
-    <t>private</t>
+    <t>showStatus</t>
+  </si>
+  <si>
+    <t>logo</t>
   </si>
   <si>
     <t>brandStory</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>factoryStatus</t>
-  </si>
-  <si>
-    <t>showStatus</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>bigPic</t>
-  </si>
-  <si>
     <t>portalService</t>
   </si>
   <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>demoService</t>
   </si>
   <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
+    <t>username</t>
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>username</t>
   </si>
   <si>
     <t>brandMapper</t>
@@ -5102,7 +5102,7 @@
         <v>122</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -5116,7 +5116,7 @@
         <v>122</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -5144,7 +5144,7 @@
         <v>122</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -5158,7 +5158,7 @@
         <v>122</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -5228,7 +5228,7 @@
         <v>122</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -5236,13 +5236,13 @@
         <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>122</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>133</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">

--- a/data/mall-swarm/mall-demo_structure.xlsx
+++ b/data/mall-swarm/mall-demo_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="170">
   <si>
     <t>Class Name</t>
   </si>
@@ -387,49 +387,49 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>brandStory</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
     <t>factoryStatus</t>
   </si>
   <si>
-    <t>private</t>
+    <t>bigPic</t>
   </si>
   <si>
     <t>sort</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>bigPic</t>
-  </si>
-  <si>
     <t>firstLetter</t>
   </si>
   <si>
     <t>showStatus</t>
   </si>
   <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>brandStory</t>
-  </si>
-  <si>
     <t>portalService</t>
   </si>
   <si>
+    <t>demoService</t>
+  </si>
+  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>demoService</t>
+    <t>password</t>
   </si>
   <si>
     <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>brandMapper</t>
@@ -3624,7 +3624,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3646,10 +3646,10 @@
         <v>25</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -3657,7 +3657,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>165</v>
@@ -3668,7 +3668,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>165</v>
@@ -3679,7 +3679,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>165</v>
@@ -3690,7 +3690,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>165</v>
@@ -3701,7 +3701,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>165</v>
@@ -3712,7 +3712,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>165</v>
@@ -3723,7 +3723,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>165</v>
@@ -3734,7 +3734,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>165</v>
@@ -3745,7 +3745,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>165</v>
@@ -3756,7 +3756,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>165</v>
@@ -3767,7 +3767,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>165</v>
@@ -3778,7 +3778,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>165</v>
@@ -3789,7 +3789,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>165</v>
@@ -3800,7 +3800,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>165</v>
@@ -3811,7 +3811,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>165</v>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>165</v>
@@ -3833,7 +3833,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>165</v>
@@ -3841,10 +3841,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>165</v>
@@ -3855,18 +3855,18 @@
         <v>106</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>165</v>
@@ -3874,13 +3874,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24">
@@ -3888,10 +3888,10 @@
         <v>109</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25">
@@ -3899,10 +3899,10 @@
         <v>109</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26">
@@ -3910,10 +3910,10 @@
         <v>109</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
@@ -3921,40 +3921,40 @@
         <v>109</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>165</v>
@@ -3965,40 +3965,40 @@
         <v>51</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>165</v>
@@ -4006,35 +4006,35 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38">
@@ -4042,10 +4042,10 @@
         <v>61</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39">
@@ -4053,7 +4053,7 @@
         <v>61</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>165</v>
@@ -4061,79 +4061,79 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47">
@@ -4141,7 +4141,7 @@
         <v>71</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>147</v>
@@ -4149,54 +4149,54 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>147</v>
@@ -4204,65 +4204,65 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>147</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>147</v>
@@ -4281,45 +4281,155 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B63" t="s" s="0">
+      <c r="B72" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B73" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="C63" t="s" s="0">
+      <c r="C73" t="s" s="0">
         <v>165</v>
       </c>
     </row>
@@ -5102,7 +5212,7 @@
         <v>122</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -5116,7 +5226,7 @@
         <v>122</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -5144,7 +5254,7 @@
         <v>122</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -5200,7 +5310,7 @@
         <v>122</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -5228,7 +5338,7 @@
         <v>122</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>132</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -5236,13 +5346,13 @@
         <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>122</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>71</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">

--- a/data/mall-swarm/mall-demo_structure.xlsx
+++ b/data/mall-swarm/mall-demo_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="170">
   <si>
     <t>Class Name</t>
   </si>
@@ -387,30 +387,30 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>firstLetter</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>private</t>
+    <t>factoryStatus</t>
+  </si>
+  <si>
+    <t>bigPic</t>
+  </si>
+  <si>
+    <t>sort</t>
   </si>
   <si>
     <t>brandStory</t>
   </si>
   <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>factoryStatus</t>
-  </si>
-  <si>
-    <t>bigPic</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>firstLetter</t>
-  </si>
-  <si>
     <t>showStatus</t>
   </si>
   <si>
@@ -426,10 +426,10 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>username</t>
   </si>
   <si>
     <t>brandMapper</t>
@@ -3624,7 +3624,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4119,10 +4119,10 @@
         <v>114</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46">
@@ -4130,7 +4130,7 @@
         <v>114</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>165</v>
@@ -4138,13 +4138,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48">
@@ -4152,7 +4152,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>147</v>
@@ -4163,7 +4163,7 @@
         <v>71</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>147</v>
@@ -4174,7 +4174,7 @@
         <v>71</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>147</v>
@@ -4185,7 +4185,7 @@
         <v>71</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>147</v>
@@ -4196,7 +4196,7 @@
         <v>71</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>147</v>
@@ -4204,13 +4204,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54">
@@ -4218,10 +4218,10 @@
         <v>72</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55">
@@ -4229,10 +4229,10 @@
         <v>72</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56">
@@ -4240,10 +4240,10 @@
         <v>72</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57">
@@ -4251,7 +4251,7 @@
         <v>72</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>155</v>
@@ -4259,21 +4259,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>147</v>
@@ -4284,7 +4284,7 @@
         <v>80</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>147</v>
@@ -4295,7 +4295,7 @@
         <v>80</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>147</v>
@@ -4306,7 +4306,7 @@
         <v>80</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>147</v>
@@ -4314,13 +4314,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64">
@@ -4328,21 +4328,21 @@
         <v>88</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66">
@@ -4350,7 +4350,7 @@
         <v>91</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>147</v>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68">
@@ -4372,21 +4372,21 @@
         <v>116</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70">
@@ -4394,10 +4394,10 @@
         <v>94</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71">
@@ -4405,7 +4405,7 @@
         <v>94</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>165</v>
@@ -4413,13 +4413,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73">
@@ -4427,9 +4427,20 @@
         <v>100</v>
       </c>
       <c r="B73" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B74" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="C73" t="s" s="0">
+      <c r="C74" t="s" s="0">
         <v>165</v>
       </c>
     </row>
